--- a/.github/datasets/dataset.xlsx
+++ b/.github/datasets/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE-teun\.github\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB031F-15DD-4F14-BB17-8C4D3E5CE384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF87AA7D-1C30-4801-96FD-0FF1D4556084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15345" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Beschikbaarstellen software</t>
   </si>
   <si>
-    <t>OTAP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ernst &amp; Martijn </t>
   </si>
   <si>
@@ -548,13 +545,22 @@
   </si>
   <si>
     <t>Prioriteit opties</t>
+  </si>
+  <si>
+    <t>Jeroen &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Bas &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>OTAP-acceptatietest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,12 +652,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF395766"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5B4310"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +808,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94DCF8"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94DCF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -818,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -844,7 +874,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -862,27 +891,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1161,283 +1200,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1483,23 +1245,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:P51" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:P51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:P51" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1"/>
+    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2"/>
+    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces"/>
+    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap"/>
+    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp"/>
+    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS"/>
+    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT"/>
+    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI"/>
+    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI"/>
+    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT"/>
+    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur"/>
+    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer"/>
+    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status"/>
     <tableColumn id="15" xr3:uid="{FA030D98-FF79-4C7B-BDD9-998488FCB84F}" name="Catalogus Id" dataDxfId="14"/>
     <tableColumn id="16" xr3:uid="{FBDEE4B1-7948-4022-A306-FB2DF65687C2}" name="Prio" dataDxfId="13"/>
   </tableColumns>
@@ -1840,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N51" sqref="A2:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,16 +1643,16 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1929,16 +1691,16 @@
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1955,7 +1717,6 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1974,16 +1735,16 @@
         <v>25</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2001,8 +1762,7 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2021,16 +1781,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -2047,7 +1807,6 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2066,16 +1825,16 @@
         <v>28</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2091,8 +1850,7 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2111,16 +1869,16 @@
         <v>29</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="36" t="s">
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -2137,7 +1895,6 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2156,16 +1913,16 @@
         <v>30</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2181,8 +1938,7 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2201,16 +1957,16 @@
         <v>31</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -2227,7 +1983,6 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2246,16 +2001,16 @@
         <v>32</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="36" t="s">
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -2271,8 +2026,7 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2291,16 +2045,16 @@
         <v>33</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="36" t="s">
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -2317,7 +2071,6 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2336,16 +2089,16 @@
         <v>34</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="36" t="s">
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2361,8 +2114,7 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2381,16 +2133,16 @@
         <v>38</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="37" t="s">
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -2407,7 +2159,6 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2426,16 +2177,16 @@
         <v>41</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="37" t="s">
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -2449,8 +2200,7 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2469,31 +2219,30 @@
         <v>44</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="37" t="s">
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="9" t="s">
-        <v>46</v>
+      <c r="N14" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2512,16 +2261,16 @@
         <v>47</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="37" t="s">
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2537,8 +2286,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2557,23 +2305,23 @@
         <v>50</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="36" t="s">
         <v>52</v>
       </c>
       <c r="O16" s="7"/>
@@ -2581,7 +2329,6 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2600,16 +2347,16 @@
         <v>53</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="37" t="s">
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2623,8 +2370,7 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2643,16 +2389,16 @@
         <v>55</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="37" t="s">
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
@@ -2667,7 +2413,6 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2686,31 +2431,30 @@
         <v>57</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="37" t="s">
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="11" t="s">
-        <v>46</v>
+      <c r="N19" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f t="shared" si="0"/>
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2729,21 +2473,21 @@
         <v>59</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="44"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="36" t="s">
         <v>52</v>
       </c>
       <c r="O20" s="7"/>
@@ -2751,7 +2495,6 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2770,29 +2513,28 @@
         <v>60</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="45"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="37" t="s">
         <v>52</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f t="shared" si="0"/>
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2811,31 +2553,30 @@
         <v>61</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="9" t="s">
-        <v>46</v>
+      <c r="N22" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2854,20 +2595,20 @@
         <v>62</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="37" t="s">
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="13" t="s">
@@ -2877,43 +2618,42 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <f t="shared" si="0"/>
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="37" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="K24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="15" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O24" s="2"/>
@@ -2921,7 +2661,6 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2940,65 +2679,64 @@
         <v>65</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="37" t="s">
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <f t="shared" si="0"/>
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="37" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="K26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3007,7 +2745,6 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3026,16 +2763,16 @@
         <v>68</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="37" t="s">
+      <c r="H27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -3044,56 +2781,54 @@
       <c r="M27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <f t="shared" si="0"/>
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="37" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="11" t="s">
-        <v>46</v>
+      <c r="K28" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="44"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3112,66 +2847,65 @@
         <v>70</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="37" t="s">
+      <c r="H29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="2"/>
+      <c r="K29" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="45"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="38" t="s">
-        <v>46</v>
+      <c r="N29" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <f t="shared" si="0"/>
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="37" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="K30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O30" s="2"/>
@@ -3179,7 +2913,6 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3198,16 +2931,16 @@
         <v>73</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="37" t="s">
+      <c r="H31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -3216,52 +2949,51 @@
       <c r="M31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N31" s="38" t="s">
+      <c r="N31" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <f t="shared" si="0"/>
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="37" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="K32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O32" s="2"/>
@@ -3269,7 +3001,6 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3288,74 +3019,72 @@
         <v>75</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="37" t="s">
+      <c r="H33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="38" t="s">
-        <v>46</v>
+      <c r="N33" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="0"/>
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="2" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="11" t="s">
-        <v>46</v>
+      <c r="M34" s="7"/>
+      <c r="N34" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3374,72 +3103,70 @@
         <v>77</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="2"/>
+      <c r="H35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="45"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="38" t="s">
-        <v>46</v>
+      <c r="N35" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="0"/>
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="2" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="11" t="s">
-        <v>46</v>
+      <c r="M36" s="7"/>
+      <c r="N36" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3458,72 +3185,68 @@
         <v>79</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="45"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="39" t="s">
-        <v>43</v>
+      <c r="N37" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f t="shared" si="0"/>
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="11" t="s">
-        <v>46</v>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="44"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3542,72 +3265,70 @@
         <v>81</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="37" t="s">
+      <c r="H39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="39" t="s">
+      <c r="N39" s="37" t="s">
         <v>52</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <f t="shared" si="0"/>
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="11" t="s">
-        <v>46</v>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3626,72 +3347,70 @@
         <v>83</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="37" t="s">
+      <c r="H41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="37" t="s">
         <v>52</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="11" t="s">
-        <v>46</v>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="44"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3710,113 +3429,110 @@
         <v>85</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="37" t="s">
+      <c r="K43" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="38" t="s">
+      <c r="N43" s="37" t="s">
         <v>52</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <f t="shared" si="0"/>
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="37" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="37" t="s">
+      <c r="K44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="11" t="s">
+      <c r="M44" s="7"/>
+      <c r="N44" s="37" t="s">
         <v>52</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="32" t="s">
+      <c r="C45" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="O45" s="32"/>
-      <c r="P45" s="42"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="45"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="31"/>
+      <c r="P45" s="35"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="0"/>
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -3835,29 +3551,28 @@
         <v>88</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="7"/>
+      <c r="H46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="44"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="7" t="s">
-        <v>46</v>
+      <c r="N46" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3876,16 +3591,16 @@
         <v>92</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="36" t="s">
+      <c r="H47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="2" t="s">
@@ -3894,7 +3609,7 @@
       <c r="M47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O47" s="1">
@@ -3903,53 +3618,51 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <f t="shared" si="0"/>
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="36" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I48" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="36" t="s">
+      <c r="I48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N48" s="13" t="s">
-        <v>43</v>
+      <c r="N48" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3961,23 +3674,23 @@
       <c r="D49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="36" t="s">
+      <c r="I49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -3986,8 +3699,8 @@
       <c r="M49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N49" s="38" t="s">
-        <v>46</v>
+      <c r="N49" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>102</v>
@@ -3995,107 +3708,119 @@
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <f t="shared" si="0"/>
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M50" s="2" t="s">
+      <c r="N50" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="N50" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="F51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O51" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O51" s="41" t="s">
-        <v>112</v>
-      </c>
       <c r="P51" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K37:L37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:K1048576">
+  <conditionalFormatting sqref="H1:K1 H52:K1048576">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1 N52:N1048576">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
@@ -4124,13 +3849,13 @@
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:N1048576</xm:sqref>
+          <xm:sqref>N1 N52:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{152E1D33-79FC-47AF-B94E-515BD2C5BB11}">
           <x14:formula1>
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1 B52:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0E077B9-D519-419E-AEFA-058508ACEAE6}">
           <x14:formula1>
@@ -4160,496 +3885,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>6</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>27</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>25</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>23</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="B10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>27</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="D10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>28</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>21</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>20</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>19</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <v>18</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>26</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="B16" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>13</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>15</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>12</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>11</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>10</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>8</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>7</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>22</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>24</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>23</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>2</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>28</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>21</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>20</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>19</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>18</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>17</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>16</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>1</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>13</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>15</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>12</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>11</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>10</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>9</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>7</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>22</v>
-      </c>
-      <c r="B29" s="29" t="s">
+      <c r="D29" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4673,11 +4398,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,15 +4497,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8081e65c0d90ff229b3ea19f4e56e8a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0696630af3392a55adada5fa3bbfbff9" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -5003,6 +4719,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
   <ds:schemaRefs>
@@ -5015,14 +4740,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4EE2B7-A422-45EC-ACF0-F986A8E813AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5041,6 +4758,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e36377b7-70c4-4493-a338-095918d327e9}" enabled="0" method="" siteId="{e36377b7-70c4-4493-a338-095918d327e9}" removed="1"/>
